--- a/medicine/Enfance/Katia_Lanero_Zamora/Katia_Lanero_Zamora.xlsx
+++ b/medicine/Enfance/Katia_Lanero_Zamora/Katia_Lanero_Zamora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katia Lanero Zamora, née le 5 mars 1985 à Liège en Belgique, est une autrice belge d’origine espagnole[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katia Lanero Zamora, née le 5 mars 1985 à Liège en Belgique, est une autrice belge d’origine espagnole.
 </t>
         </is>
       </c>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Katia Lanero Zamora naît le 5 mars 1985 à Liège. Passionnée par la lecture dès l’enfance, l’autrice découvre rapidement la fantasy, notamment à travers La Nuit des temps de René Barjavel et la saga Harry Potter de J.K. Rowling[2].
-En 2003, Katia Lanero Zamora se dirige vers des études littéraires à l’Université de Liège. Elle réalise une licence en langues romanes et littérature, suivie d'un master de communication en métiers du livre[3].
-Carrière
-Après ses études, Katia Lanero Zamora a travaillé en tant que chargée de relations avec les auteurs littéraires à la Société civile des auteurs multimédia (Scam). Ensuite, pendant trois ans, elle s’est occupée du volet numérique de la collection Espace Nord au sein de Cairn.info.
-Elle écrit les textes de deux albums jeunesse parus aux éditions Luzabelle :  Albigondine est une fée (2010) et Günther le Menteur (2011). Elle a également participé à l’ouvrage collectif Bruxelles Noir (Asphalte, 2015)[1]. En 2012, elle s’est lancée dans le roman jeunes adultes avec la trilogie fantasy des Chroniques des Hémisphères parue aux Impressions Nouvelles.[4] En septembre 2015, elle a reçu la bourse de la Fondation de la Vocation[5]. Depuis, elle développe ses projets d’écriture et d’animation d’ateliers[6],[7].
-À partir de septembre 2017, Katia Lanero Zamora est également conseillère d’écriture pour les séries belges et les projets digitaux du pôle fiction de la RTBF[2]. En 2018, elle publie son nouveau roman fantasy, Les Ombres d’Esver, aux éditions ActuSF en même temps qu’est diffusé Doulange, le premier podcast natif de la RTBF,  co-écrit avec Caroline Prévinaire[8],[9],[10].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katia Lanero Zamora naît le 5 mars 1985 à Liège. Passionnée par la lecture dès l’enfance, l’autrice découvre rapidement la fantasy, notamment à travers La Nuit des temps de René Barjavel et la saga Harry Potter de J.K. Rowling.
+En 2003, Katia Lanero Zamora se dirige vers des études littéraires à l’Université de Liège. Elle réalise une licence en langues romanes et littérature, suivie d'un master de communication en métiers du livre.
 </t>
         </is>
       </c>
@@ -545,28 +558,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvres</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de jeunesse
-Albigondine est une fée, Liège, éditions Luzabelle, 2010
-Gunther le Menteur, Liège, éditions Luzabelle, 2011
-Romans et nouvelles
-Chroniques des hémisphères, t. 1 : Le bal des poussières, Bruxelles, Les Impressions Nouvelles, 2012[11]
-Chroniques des hémisphères, t. 2 : La reine de la pluie, Bruxelles, Les Impressions Nouvelles, 2013[12]
-Chroniques des Hémisphères, t. 3 : Le Masque du Caracal, Bruxelles, Les Impressions Nouvelles, 2014[13]
-Dédales, dans Bruxelles Noir  (Michel Dufranne (éd.)), Paris, Asphalte éditions, 2015[14]
-Oasis, Bruxelles, Fureur de Lire / Fédération Wallonie-Bruxelles, 2018[15]
-Les Ombres d'Esver, Chambéry, ActuSF, 2018[16]
-La Fée Pois-chiche, dans C'est écrit près de chez vous, Editions de la Province de Liège, 2019
-La Machine, tome 1, ActuSF, 2021 - Prix de l'Ouest hurlant catégorie Lycéens 2022[17]
-Podcasts
-Doulange, podcast natif de la RTBF, co-écrit avec Caroline Prévinaire, 2018[18],[19].
-Sisyphe heureux, podcast natif de la RTBF, 2020[20]
-Petits génies, podcast natif de La voix dans ta tête, 2022 [21]
-Macrales, podcast natif de La voix dans ta tête, 2022 [22]</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études, Katia Lanero Zamora a travaillé en tant que chargée de relations avec les auteurs littéraires à la Société civile des auteurs multimédia (Scam). Ensuite, pendant trois ans, elle s’est occupée du volet numérique de la collection Espace Nord au sein de Cairn.info.
+Elle écrit les textes de deux albums jeunesse parus aux éditions Luzabelle :  Albigondine est une fée (2010) et Günther le Menteur (2011). Elle a également participé à l’ouvrage collectif Bruxelles Noir (Asphalte, 2015). En 2012, elle s’est lancée dans le roman jeunes adultes avec la trilogie fantasy des Chroniques des Hémisphères parue aux Impressions Nouvelles. En septembre 2015, elle a reçu la bourse de la Fondation de la Vocation. Depuis, elle développe ses projets d’écriture et d’animation d’ateliers,.
+À partir de septembre 2017, Katia Lanero Zamora est également conseillère d’écriture pour les séries belges et les projets digitaux du pôle fiction de la RTBF. En 2018, elle publie son nouveau roman fantasy, Les Ombres d’Esver, aux éditions ActuSF en même temps qu’est diffusé Doulange, le premier podcast natif de la RTBF,  co-écrit avec Caroline Prévinaire.
+</t>
         </is>
       </c>
     </row>
@@ -591,12 +597,133 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Albigondine est une fée, Liège, éditions Luzabelle, 2010
+Gunther le Menteur, Liège, éditions Luzabelle, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Katia_Lanero_Zamora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katia_Lanero_Zamora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans et nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chroniques des hémisphères, t. 1 : Le bal des poussières, Bruxelles, Les Impressions Nouvelles, 2012
+Chroniques des hémisphères, t. 2 : La reine de la pluie, Bruxelles, Les Impressions Nouvelles, 2013
+Chroniques des Hémisphères, t. 3 : Le Masque du Caracal, Bruxelles, Les Impressions Nouvelles, 2014
+Dédales, dans Bruxelles Noir  (Michel Dufranne (éd.)), Paris, Asphalte éditions, 2015
+Oasis, Bruxelles, Fureur de Lire / Fédération Wallonie-Bruxelles, 2018
+Les Ombres d'Esver, Chambéry, ActuSF, 2018
+La Fée Pois-chiche, dans C'est écrit près de chez vous, Editions de la Province de Liège, 2019
+La Machine, tome 1, ActuSF, 2021 - Prix de l'Ouest hurlant catégorie Lycéens 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Katia_Lanero_Zamora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katia_Lanero_Zamora</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Podcasts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doulange, podcast natif de la RTBF, co-écrit avec Caroline Prévinaire, 2018,.
+Sisyphe heureux, podcast natif de la RTBF, 2020
+Petits génies, podcast natif de La voix dans ta tête, 2022 
+Macrales, podcast natif de La voix dans ta tête, 2022 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Katia_Lanero_Zamora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katia_Lanero_Zamora</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo[23], proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo, proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
 </t>
         </is>
       </c>
